--- a/downloaded_files/EECS100_Tutorial-35758.xlsx
+++ b/downloaded_files/EECS100_Tutorial-35758.xlsx
@@ -141,6 +141,15 @@
     <x:t>Ali Osama Mohamed Mamdouh Nafeh</x:t>
   </x:si>
   <x:si>
+    <x:t>1230066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على اشرف على حسن السنان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Ashraf Ali Hassan Elsanan</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230072</x:t>
   </x:si>
   <x:si>
@@ -175,15 +184,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Khaled Abouelyazid Shalaby</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد عبدالرحمن عبدالحميد هليل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohammed Abdelrahman Abdelhamid Heliel</x:t>
   </x:si>
   <x:si>
     <x:t>1220197</x:t>
@@ -681,7 +681,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="30.970625000000002" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="53.220625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1146,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4178459144</x:v>
+        <x:v>45922.9211785069</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1178,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4200599884</x:v>
+        <x:v>45907.4178459144</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1210,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4148592245</x:v>
+        <x:v>45907.4200599884</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1242,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.414474919</x:v>
+        <x:v>45907.4148592245</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1274,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.1381466435</x:v>
+        <x:v>45907.414474919</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>

--- a/downloaded_files/EECS100_Tutorial-35758.xlsx
+++ b/downloaded_files/EECS100_Tutorial-35758.xlsx
@@ -1466,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4194798958</x:v>
+        <x:v>45927.4333722569</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>

--- a/downloaded_files/EECS100_Tutorial-35758.xlsx
+++ b/downloaded_files/EECS100_Tutorial-35758.xlsx
@@ -192,7 +192,7 @@
     <x:t>محمد هاني فوزي محمد الخطيب</x:t>
   </x:si>
   <x:si>
-    <x:t>MOHAMMED HANY FAWZY MOHAMMED ALKHATEEB</x:t>
+    <x:t>Mohammed Hany Fawzy Mohammed Alkhateeb</x:t>
   </x:si>
   <x:si>
     <x:t>1230324</x:t>

--- a/downloaded_files/EECS100_Tutorial-35758.xlsx
+++ b/downloaded_files/EECS100_Tutorial-35758.xlsx
@@ -111,7 +111,7 @@
     <x:t>رنا احمد محمد سمير محمد فهمى الغرباوى</x:t>
   </x:si>
   <x:si>
-    <x:t>Rana ahmed mohamed samir mohamed fahmy elgharabawy</x:t>
+    <x:t>RANA AHMED MOHAMED SAMIR MOHAMED FAHMY EIGHARABAWY</x:t>
   </x:si>
   <x:si>
     <x:t>1220124</x:t>
@@ -129,7 +129,7 @@
     <x:t>عبدالرحمن عصام محمد اسماعيل</x:t>
   </x:si>
   <x:si>
-    <x:t>abdalrahman esam mohamed</x:t>
+    <x:t>Abdalrahman Esam Mohamed Ismail Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1230205</x:t>
@@ -156,7 +156,7 @@
     <x:t>عمر احمد رأفت احمد محمود</x:t>
   </x:si>
   <x:si>
-    <x:t>Omar Ahmed Raafat Ahmed</x:t>
+    <x:t>Omar Ahmed Raafat Ahmed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1230079</x:t>
@@ -174,7 +174,7 @@
     <x:t>فرح مدحت محمد حسن شرشر</x:t>
   </x:si>
   <x:si>
-    <x:t>Farah medhat mohamed hassan sharshar</x:t>
+    <x:t>Farah Medhat Mohamed Hassan Sharshar</x:t>
   </x:si>
   <x:si>
     <x:t>1230245</x:t>
@@ -680,7 +680,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="30.970625000000002" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="53.220625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="60.720625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
